--- a/BackTest/2020-01-24 BackTest ETC.xlsx
+++ b/BackTest/2020-01-24 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>528.2519635366378</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1298.559913447306</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1049.227513447306</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>1123.826191445418</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>1123.826191445418</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>1123.826191445418</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>975.544956162399</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>328.410356162399</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>84.41035616239901</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>453.887656162399</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>13.88765616239903</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>13.88765616239903</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-495.397343837601</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-254.945043837601</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-262.783543837601</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-173.567643837601</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>61.44205616239904</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>61.44205616239904</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>61.44205616239904</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>61.44205616239904</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>61.44205616239904</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>157.7584561623991</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>283.6784561623991</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>325.2184561623991</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>163.3263561623991</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>169.7235561623991</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1312.692610037414</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1607.159310037414</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1900.249210037414</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1860.084567783893</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1869.111767783893</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2029.111767783893</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1559.126467783893</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1766.526467783893</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1779.796567783893</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1839.760767783893</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1839.760767783893</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1837.058067783893</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1837.058067783893</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2485.145567783893</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2482.045567783893</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2481.824467783892</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-2166.289367783892</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-2163.289367783892</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2177.976367783892</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2351.716667783892</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2351.716667783892</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-2656.154167783892</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2707.076267783892</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2181.584567783892</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2041.536367783892</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2091.536367783892</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1819.144823652437</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1806.544823652437</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1808.690623652437</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1815.101023652437</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1429.469575532136</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1489.855775532136</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1671.497775532136</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1671.497775532136</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1836.934975532136</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1836.934975532136</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1408.841975532136</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1419.602775532136</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1817.717475532136</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1697.639375532136</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1704.551175532136</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1706.851175532136</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1730.091575532136</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1619.280275532136</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3037.476475532136</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3037.476475532136</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-3037.476475532136</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-3037.476475532136</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-3037.476475532136</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3028.238575532136</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3075.243275532136</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-2854.656775532136</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-3997.995775532136</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-3909.653161895772</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3891.587261895772</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-3891.587261895772</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-3888.465861895772</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-3927.257061895772</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3761.312761895772</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3916.370361895772</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3916.370361895772</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-3918.370361895772</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-3918.370361895772</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3917.193561895772</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3924.717661895772</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3804.257361895772</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3804.257361895772</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3804.257361895772</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3804.257361895772</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3804.257361895772</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3804.257361895772</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3816.266261895772</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3793.707661895772</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3793.707661895772</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3048.670061895772</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-3514.889361895772</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-3430.022461895772</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-3336.819761895772</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-3083.393561895772</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-3082.388361895772</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3289.535261895772</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-3289.535261895772</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-3289.535261895772</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-3287.003861895772</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-3288.987061895773</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-3288.987061895773</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-3217.353161895773</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-3464.677061895773</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-3474.677061895773</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-3474.677061895773</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-3474.141261895772</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-4012.675561895772</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-4012.675561895772</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-4012.675561895772</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-4012.675561895772</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-4094.029961895772</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-4190.002561895772</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-4125.668261895772</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-4125.668261895772</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-4124.723061895772</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-4124.723061895772</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-4124.723061895772</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-4124.723061895772</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-4124.723061895772</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-4124.723061895772</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-4124.723061895772</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-4150.696161895772</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-3718.181561895772</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-3725.711561895772</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-4231.202061895772</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-4231.202061895772</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-4231.202061895772</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-4227.207661895773</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-4227.207661895773</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-4224.550261895773</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-4224.550261895773</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-4224.550261895773</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-4224.550261895773</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-4224.550261895773</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-4224.550261895773</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-4224.550261895773</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-4318.434161895772</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-4318.434161895772</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-4194.273161895772</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-4184.273161895772</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-4232.350061895772</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-4163.327561895772</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-4913.327561895772</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-4903.638561895772</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-6196.447103515358</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-6193.014603515358</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-6313.546903515358</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-6286.105703515358</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-6286.105703515358</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-6286.105703515358</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-5918.532203515358</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-5155.739003515358</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-5160.859003515357</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-5194.540003515357</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-5076.779303515357</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-5034.609403515357</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-4988.826003515357</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-4902.901703515357</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-4042.440803515357</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-4093.091203515357</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-4018.747603515357</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-4155.187003515357</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-4155.187003515357</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-4219.321203515357</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-4442.262003515358</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-4042.152003515358</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-2832.875203515357</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2680.877603515357</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2680.877603515357</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-2792.428203515357</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2789.192003515358</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-3798.583603515357</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-3798.583603515357</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-3798.583603515357</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-4837.836603515358</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-5069.748003515358</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-5037.529203515358</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-4848.213303515358</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-4917.965103515358</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-5407.599803515358</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-5773.510603515358</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-5497.287003515357</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-6558.576403515357</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-6188.524403515357</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-6188.524403515357</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-6111.727103515357</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-6111.680103515358</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-6111.680103515358</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-6555.842803515358</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-6545.655103515358</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-6545.655103515358</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-6598.502303515358</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-6499.175703515358</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-6499.175703515358</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-6499.175703515358</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-6499.175703515358</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-6499.175703515358</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-6336.388003515358</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-6261.444403515358</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-6261.444403515358</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-6261.444403515358</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-6261.444403515358</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-6261.535503515358</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-6258.085703515358</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-6513.632603515358</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-6513.632603515358</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-6327.926803515358</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-6730.826803515358</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-6721.112803515358</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-7137.245403515358</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-7391.195903515358</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-7304.721203515358</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-7505.282103515358</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-7612.814603515359</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-7612.814603515359</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-7769.961103515358</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-7769.961103515358</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-7767.696603515358</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-7767.696603515358</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-7784.678803515359</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-7784.678803515359</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-7784.678803515359</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-7784.678803515359</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-7890.069303515359</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-8099.240303515359</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-8180.82410351536</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-8276.333603515359</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-8201.286303515359</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-8257.351203515358</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-8181.190003515359</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-8328.492703515358</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-8295.428203515357</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-8314.408203515357</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-8314.408203515357</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-8362.850603515357</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-8309.364603515356</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-8358.8196603781</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-6893.049960378099</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-5182.2548181563</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-10772.45227329823</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-8929.613318571857</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-8929.613318571857</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-10482.41769717882</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-10293.33363375934</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-9078.12203375934</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-7919.843833759341</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-7919.843833759341</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-7894.82203375934</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-8129.506533759341</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-7886.77523375934</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-6099.23683375934</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-6966.898533759339</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-6707.97913375934</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-6857.97913375934</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-6767.60163375934</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-7052.26853375934</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-7042.26083375934</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-7097.94983375934</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-6936.022033759341</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-6775.819933759341</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-6775.819933759341</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-6775.819933759341</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-6780.43403375934</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-6883.911333759341</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-6883.977133759341</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-6945.531033759341</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-6915.531033759341</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-7093.717633759341</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-7035.764533759341</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-7348.062533759341</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-7693.876233759341</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-7664.231964984637</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-7666.739464984636</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-7251.739464984636</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-7567.988464984636</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-7510.896364984636</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-7724.146364984636</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-7724.146364984636</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-7757.975464984636</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-7757.975464984636</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-6869.41209888208</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-7294.83239888208</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-9565.933326348233</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-9567.989126348233</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-9436.678926348233</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-10329.05032634823</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-10851.91192634823</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-11362.05272634823</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-11224.35982634823</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-11295.72462634823</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-11295.64302634823</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-11295.64302634823</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-11295.64302634823</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-11295.64302634823</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-11406.13752634823</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-11405.94752634823</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-11405.94752634823</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-10012.05252878726</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-10216.05252878726</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-11322.85662878726</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-11323.32482878726</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-11323.26042878725</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-11508.06062878725</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-10474.90760012561</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-10744.18320012561</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-10775.35370012561</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-10730.75610012561</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-10674.98750012561</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-10674.43880012561</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-11265.10490012561</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-11150.10490012561</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-11218.02620012561</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-10815.01950012561</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-10129.08410012561</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-10109.78850012561</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-10159.33970012561</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-10283.62280012561</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-15212.02330012561</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25861,11 +25861,17 @@
         <v>-12661.34570012561</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>9920</v>
+      </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25894,11 +25900,17 @@
         <v>-12441.73360012561</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>9950</v>
+      </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -25927,11 +25939,17 @@
         <v>-12477.36820012561</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>9980</v>
+      </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -25960,11 +25978,17 @@
         <v>-13328.38740012561</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>9955</v>
+      </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -25993,15 +26017,17 @@
         <v>-13204.18920012561</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I776" t="n">
         <v>9905</v>
       </c>
-      <c r="J776" t="n">
-        <v>9905</v>
-      </c>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26030,17 +26056,15 @@
         <v>-13622.93620012561</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I777" t="n">
         <v>9950</v>
       </c>
-      <c r="J777" t="n">
-        <v>9905</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L777" t="n">
@@ -26071,14 +26095,12 @@
         <v>-13422.36970012561</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I778" t="n">
         <v>9905</v>
       </c>
-      <c r="J778" t="n">
-        <v>9905</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26112,14 +26134,12 @@
         <v>-13422.36970012561</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I779" t="n">
         <v>9925</v>
       </c>
-      <c r="J779" t="n">
-        <v>9905</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26153,14 +26173,12 @@
         <v>-13164.13010012561</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I780" t="n">
         <v>9925</v>
       </c>
-      <c r="J780" t="n">
-        <v>9905</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26194,14 +26212,12 @@
         <v>-13164.13010012561</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I781" t="n">
         <v>9935</v>
       </c>
-      <c r="J781" t="n">
-        <v>9905</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26235,14 +26251,12 @@
         <v>-13164.13010012561</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I782" t="n">
         <v>9935</v>
       </c>
-      <c r="J782" t="n">
-        <v>9905</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26279,9 +26293,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>9905</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26318,9 +26330,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>9905</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26357,9 +26367,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>9905</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26396,9 +26404,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>9905</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26435,9 +26441,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>9905</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26474,9 +26478,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>9905</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26513,9 +26515,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>9905</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26552,9 +26552,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>9905</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26588,14 +26586,10 @@
         <v>-13100.4304001256</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
-      </c>
-      <c r="I791" t="n">
-        <v>9975</v>
-      </c>
-      <c r="J791" t="n">
-        <v>9905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26632,9 +26626,7 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>9905</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26646,6 +26638,6 @@
       <c r="M792" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest ETC.xlsx
+++ b/BackTest/2020-01-24 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>-262.783543837601</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-173.567643837601</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>61.44205616239904</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>61.44205616239904</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>61.44205616239904</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>61.44205616239904</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>61.44205616239904</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>157.7584561623991</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>283.6784561623991</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>325.2184561623991</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>163.3263561623991</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>169.7235561623991</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1312.692610037414</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1607.159310037414</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1900.249210037414</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1860.084567783893</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1869.111767783893</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2029.111767783893</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1559.126467783893</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1766.526467783893</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1779.796567783893</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1839.760767783893</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1839.760767783893</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1837.058067783893</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1837.058067783893</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2485.145567783893</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2482.045567783893</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2481.824467783892</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-2166.289367783892</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-2163.289367783892</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2351.716667783892</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1819.144823652437</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-1806.544823652437</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1808.690623652437</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1815.101023652437</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1429.469575532136</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1489.855775532136</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1671.497775532136</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1671.497775532136</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1836.934975532136</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1836.934975532136</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1408.841975532136</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1419.602775532136</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-1817.717475532136</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1697.639375532136</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1704.551175532136</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1706.851175532136</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-1730.091575532136</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1619.280275532136</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3037.476475532136</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3037.476475532136</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-3037.476475532136</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-3037.476475532136</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-3037.476475532136</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-3028.238575532136</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3075.243275532136</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-2854.656775532136</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-3997.995775532136</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-3909.653161895772</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3891.587261895772</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-3891.587261895772</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-3888.465861895772</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-3927.257061895772</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3761.312761895772</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3916.370361895772</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3916.370361895772</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-3918.370361895772</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-3918.370361895772</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3917.193561895772</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3924.717661895772</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3804.257361895772</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3804.257361895772</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3804.257361895772</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3804.257361895772</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3804.257361895772</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3804.257361895772</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3816.266261895772</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3793.707661895772</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3793.707661895772</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3048.670061895772</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-3514.889361895772</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-3430.022461895772</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-3336.819761895772</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-3083.393561895772</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-3082.388361895772</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3289.535261895772</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-3289.535261895772</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-3289.535261895772</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-3287.003861895772</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-3288.987061895773</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-3288.987061895773</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-3217.353161895773</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-3464.677061895773</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-3474.677061895773</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-3474.677061895773</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-3474.141261895772</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-4012.675561895772</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-4012.675561895772</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-4012.675561895772</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-4012.675561895772</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-4094.029961895772</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-4190.002561895772</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-4125.668261895772</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-4125.668261895772</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-4124.723061895772</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-4124.723061895772</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-4124.723061895772</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-4124.723061895772</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-4124.723061895772</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-4124.723061895772</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-4124.723061895772</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-4150.696161895772</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-3718.181561895772</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-3725.711561895772</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-4231.202061895772</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-4231.202061895772</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-4231.202061895772</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-4227.207661895773</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-4227.207661895773</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-4224.550261895773</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-4224.550261895773</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-4224.550261895773</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-4224.550261895773</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-4224.550261895773</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-4224.550261895773</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-4224.550261895773</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-4318.434161895772</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-4318.434161895772</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-4194.273161895772</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-4184.273161895772</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-4232.350061895772</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-4163.327561895772</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-4913.327561895772</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-4903.638561895772</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-6196.447103515358</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-6193.014603515358</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-6313.546903515358</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-6286.105703515358</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-6286.105703515358</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-6286.105703515358</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-5918.532203515358</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-5155.739003515358</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-5160.859003515357</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-5194.540003515357</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-5076.779303515357</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-5034.609403515357</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-4988.826003515357</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-4902.901703515357</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-4042.440803515357</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-4093.091203515357</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-4018.747603515357</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-4155.187003515357</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-4155.187003515357</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-4219.321203515357</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-4442.262003515358</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-4042.152003515358</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-2832.875203515357</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2680.877603515357</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2680.877603515357</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-2792.428203515357</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2789.192003515358</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-3798.583603515357</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-3798.583603515357</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-3798.583603515357</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-4837.836603515358</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-5069.748003515358</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-5037.529203515358</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-4848.213303515358</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-4917.965103515358</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-5407.599803515358</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-5773.510603515358</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-5497.287003515357</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-6558.576403515357</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-6188.524403515357</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-6188.524403515357</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-6111.727103515357</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-6111.680103515358</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-6111.680103515358</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-6555.842803515358</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-6545.655103515358</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-6545.655103515358</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-6598.502303515358</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-6499.175703515358</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-6499.175703515358</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-6499.175703515358</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-6499.175703515358</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-6499.175703515358</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-6336.388003515358</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-6261.444403515358</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-6261.444403515358</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-6261.444403515358</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-6261.444403515358</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-6261.535503515358</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-6258.085703515358</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-6513.632603515358</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-6513.632603515358</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-6327.926803515358</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-6730.826803515358</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-6721.112803515358</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-7137.245403515358</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-7391.195903515358</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-7304.721203515358</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-7505.282103515358</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-7612.814603515359</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-7612.814603515359</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-7769.961103515358</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-7769.961103515358</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-7767.696603515358</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-7767.696603515358</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-7784.678803515359</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-7784.678803515359</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-7784.678803515359</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-7784.678803515359</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-7890.069303515359</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-8099.240303515359</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-8180.82410351536</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-8276.333603515359</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-8201.286303515359</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-8257.351203515358</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-8181.190003515359</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-8328.492703515358</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-8295.428203515357</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-8314.408203515357</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-8314.408203515357</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-8362.850603515357</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-7126.165498882079</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-7174.46689888208</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-7038.954326348231</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-7326.720326348231</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-7326.720326348231</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-7262.187126348231</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-7344.119126348231</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-6833.581826348231</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-6833.581826348231</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-6833.581826348231</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-6853.873826348231</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-8450.767626348232</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-9161.978926348233</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-9050.090026348233</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-9050.090026348233</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-9113.292926348233</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-9566.190326348233</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-11915.60872878725</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-11934.14602878725</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-11934.14602878725</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-11934.14602878725</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-12073.98722878725</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-12069.97702878725</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-12071.61052878725</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-12778.55772878725</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-12678.05472878725</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-12881.97102878725</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-12390.74152878726</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-12033.38962878726</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-12082.07132878725</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-12138.42782878725</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-12142.14062878725</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-9152.472000125608</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-10293.26340012561</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-10180.16160012561</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-10274.89000012561</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-10372.26780012561</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25762,11 +25762,17 @@
         <v>-13109.13670012561</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>9905</v>
+      </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25795,11 +25801,17 @@
         <v>-12139.01020012561</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>9895</v>
+      </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25828,11 +25840,17 @@
         <v>-13296.39140012561</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>9925</v>
+      </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25869,7 +25887,7 @@
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L772" t="n">
@@ -25939,11 +25957,9 @@
         <v>-12477.36820012561</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>9980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
@@ -26290,9 +26306,11 @@
         <v>-13162.3295001256</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>9935</v>
+      </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -26327,9 +26345,11 @@
         <v>-12944.3786001256</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>9955</v>
+      </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -26364,9 +26384,11 @@
         <v>-12944.3786001256</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>9985</v>
+      </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -26638,6 +26660,6 @@
       <c r="M792" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest ETC.xlsx
+++ b/BackTest/2020-01-24 BackTest ETC.xlsx
@@ -1210,7 +1210,7 @@
         <v>157.7584561623991</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>283.6784561623991</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>325.2184561623991</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>163.3263561623991</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>169.7235561623991</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1312.692610037414</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1607.159310037414</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1900.249210037414</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1877.882110037414</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1877.882110037414</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2124.214667783893</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2124.214667783893</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2115.542667783893</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1555.188367783893</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1644.218367783893</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1741.584567783893</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1741.584567783893</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1860.084567783893</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1869.111767783893</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2029.111767783893</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1837.058067783893</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2485.145567783893</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2482.045567783893</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-2166.289367783892</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-2163.289367783892</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2177.976367783892</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2351.716667783892</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2351.716667783892</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-2656.154167783892</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2707.076267783892</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2178.376967783892</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2181.584567783892</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2041.536367783892</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1783.585623652437</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1819.144823652437</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1815.101023652437</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1489.855775532136</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1671.497775532136</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3289.535261895772</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-4093.091203515357</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-4018.747603515357</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-4155.187003515357</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-4155.187003515357</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-4219.321203515357</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2680.877603515357</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2680.877603515357</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-2792.428203515357</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-2789.192003515358</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-3798.583603515357</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-3798.583603515357</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-4837.836603515358</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-7126.165498882079</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-7174.46689888208</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-7038.954326348231</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-7326.720326348231</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-7326.720326348231</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-7262.187126348231</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-7344.119126348231</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-6833.581826348231</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-6833.581826348231</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-6833.581826348231</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-6853.873826348231</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-8450.767626348232</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-9161.978926348233</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-9050.090026348233</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-9050.090026348233</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-9113.292926348233</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-9566.190326348233</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-11915.60872878725</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-11934.14602878725</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-11934.14602878725</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-11934.14602878725</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-12073.98722878725</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-12069.97702878725</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-12071.61052878725</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-12778.55772878725</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-12678.05472878725</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-12881.97102878725</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-12390.74152878726</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-12033.38962878726</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-12082.07132878725</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-12138.42782878725</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-12142.14062878725</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-9152.472000125608</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24310,7 +24310,7 @@
         <v>-10293.26340012561</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-10180.16160012561</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-10274.89000012561</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-10372.26780012561</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25762,17 +25762,11 @@
         <v>-13109.13670012561</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>9905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25801,17 +25795,11 @@
         <v>-12139.01020012561</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>9895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25848,7 +25836,7 @@
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L771" t="n">
@@ -25957,9 +25945,11 @@
         <v>-12477.36820012561</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>9980</v>
+      </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
@@ -26423,9 +26413,11 @@
         <v>-12944.3786001256</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>9985</v>
+      </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -26460,9 +26452,11 @@
         <v>-12742.2226001256</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>9985</v>
+      </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -26497,9 +26491,11 @@
         <v>-12742.2226001256</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>9995</v>
+      </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -26534,9 +26530,11 @@
         <v>-13038.7371001256</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>9995</v>
+      </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -26571,9 +26569,11 @@
         <v>-13038.7371001256</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>9975</v>
+      </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -26608,9 +26608,11 @@
         <v>-13100.4304001256</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>9975</v>
+      </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
@@ -26645,9 +26647,11 @@
         <v>-13211.6198001256</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>9960</v>
+      </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
